--- a/test_redirect.xlsx
+++ b/test_redirect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\zoomos_v4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\zoomos_v4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E300E11-03E1-441F-AD26-F6956A81054E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAA239D-8177-435B-969D-B1DCD6A98CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40B651F1-AD7D-43E5-9DE3-390D36D83346}"/>
+    <workbookView xWindow="-38510" yWindow="-3230" windowWidth="38620" windowHeight="21100" xr2:uid="{40B651F1-AD7D-43E5-9DE3-390D36D83346}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https://lenta.com/product/vino-igristoe-bio-bio-bubbles-organic-bel-bryut-italiya-075l-521969/</t>
   </si>
   <si>
     <t>https://lenta.com/product/vino-igristoe-prochie-tovary-prosekko-ekstra-drajj-bel-bryut-italiya-075l-675845/</t>
+  </si>
+  <si>
+    <t>https://goldapple.ru/qr/19000180718</t>
+  </si>
+  <si>
+    <t>https://goldapple.ru/qr/19000180719</t>
   </si>
 </sst>
 </file>
@@ -404,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCF0E9B-7795-4E9B-96CB-C872457DAEE3}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,21 +413,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{1950B3CE-F875-45C9-9EE3-05A694643397}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{7F7020A2-D4D5-4A44-99FD-5E4A5D0C30A6}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{1950B3CE-F875-45C9-9EE3-05A694643397}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{7F7020A2-D4D5-4A44-99FD-5E4A5D0C30A6}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{260F73EB-A31C-43F9-83BC-2AD6D9DCA28E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>